--- a/biology/Botanique/Chardon_penché/Chardon_penché.xlsx
+++ b/biology/Botanique/Chardon_penché/Chardon_penché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chardon_pench%C3%A9</t>
+          <t>Chardon_penché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carduus nutans
 Le chardon penché (Carduus nutans) est une espèce de plante à fleurs de la famille des Astéracées commune en Europe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chardon_pench%C3%A9</t>
+          <t>Chardon_penché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une plante épineuse à port dressé qui peut atteindre un mètre de haut. Sa racine pivotante est assez développée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épineuse à port dressé qui peut atteindre un mètre de haut. Sa racine pivotante est assez développée.
 Les feuilles ont un limbe découpé et bordé d'épines nombreuses. Elle se prolongent en ailes sur la tige.
 Les fleurs, rose pourpre, parfois blanches, sont réunies en capitules de 3 à 5 cm de diamètre, qui prennent un port penché lorsqu'ils sont épanouis. Elles sont toutes tubulées stamino-pistillées et donnent des akènes équipés de pappus. L'involucre est constitué de bractées nombreuses terminées par une épine simple, forte et piquante, les plus extérieures, étalées et renversées, rayonnent autour du capitule.
 Plante bisannuelle.
-Sous-espèces
-Carduus nutans ssp.  alpicola (Gillot) Chass. &amp; Arènes - Chardon des Alpes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chardon_penché</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardon_pench%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carduus nutans ssp.  alpicola (Gillot) Chass. &amp; Arènes - Chardon des Alpes
 Carduus nutans ssp. leiophyllus (Petrovic) Stojanov
 Carduus nutans ssp. macrocephalus (Desf.) Nyman
 Carduus nutans ssp. nutans L. - Chardon penché
@@ -528,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chardon_pench%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chardon_penché</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chardon_pench%C3%A9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 type d'inflorescence : racème de capitules ou capitule simple ;
@@ -571,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chardon_pench%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chardon_penché</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chardon_pench%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est spontanée dans une vaste zone de l'ancien monde incluant :
 en Europe : les îles britanniques, l'Europe centrale (Allemagne, Suisse, Autriche, Tchécoslovaquie), les pays baltes, la Russie, l'ouest et le sud (Pays-Bas, Belgique, France, Espagne, Italie, ex-Yougoslavie) ;
